--- a/Thesis/Overleaf Version/output.xlsx
+++ b/Thesis/Overleaf Version/output.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Hasil Run Codes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Bukti constraint II" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Bukti constraint V" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Proporsi b_ijk" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Hasil x_k -- total gula k yang dibeli</t>
   </si>
@@ -113,7 +114,7 @@
     <t xml:space="preserve">x_hat[4,k] -- gula k yang dikirim pada minggu 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Berikut adalah hasil summari dari a_ijk.
+    <t xml:space="preserve">Berikut adalah hasil summary dari a_ijk.
 ======================================
 Pada item dengan penggunaan min 2 jenis gula di minggu I:</t>
   </si>
@@ -131,6 +132,27 @@
   <si>
     <t xml:space="preserve">======================================
 Pada item dengan penggunaan min 2 jenis gula di minggu IV:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berikut adalah proporsi penggunaan gula pada produk i di minggu j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gula 6</t>
   </si>
 </sst>
 </file>
@@ -12633,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="E749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750">
@@ -13483,7 +13505,7 @@
         <v>4</v>
       </c>
       <c r="E799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -14367,7 +14389,7 @@
         <v>4</v>
       </c>
       <c r="E851" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852">
@@ -22226,7 +22248,7 @@
         <v>1</v>
       </c>
       <c r="E1316" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1317">
@@ -22311,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="E1321" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1322">
@@ -22345,7 +22367,7 @@
         <v>1</v>
       </c>
       <c r="E1323" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1324">
@@ -22362,7 +22384,7 @@
         <v>1</v>
       </c>
       <c r="E1324" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1325">
@@ -22430,7 +22452,7 @@
         <v>1</v>
       </c>
       <c r="E1328" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1329">
@@ -22464,7 +22486,7 @@
         <v>1</v>
       </c>
       <c r="E1330" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1331">
@@ -22481,7 +22503,7 @@
         <v>1</v>
       </c>
       <c r="E1331" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1332">
@@ -22515,7 +22537,7 @@
         <v>1</v>
       </c>
       <c r="E1333" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1334">
@@ -22549,7 +22571,7 @@
         <v>1</v>
       </c>
       <c r="E1335" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1336">
@@ -22566,7 +22588,7 @@
         <v>1</v>
       </c>
       <c r="E1336" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1337">
@@ -22583,7 +22605,7 @@
         <v>1</v>
       </c>
       <c r="E1337" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1338">
@@ -22617,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="E1339" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1340">
@@ -22634,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="E1340" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1341">
@@ -22668,7 +22690,7 @@
         <v>1</v>
       </c>
       <c r="E1342" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1343">
@@ -22685,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="E1343" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1344">
@@ -22702,7 +22724,7 @@
         <v>1</v>
       </c>
       <c r="E1344" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1345">
@@ -22753,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="E1347" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1348">
@@ -22804,7 +22826,7 @@
         <v>1</v>
       </c>
       <c r="E1350" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1351">
@@ -22838,7 +22860,7 @@
         <v>1</v>
       </c>
       <c r="E1352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1353">
@@ -22855,7 +22877,7 @@
         <v>1</v>
       </c>
       <c r="E1353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1354">
@@ -22906,7 +22928,7 @@
         <v>1</v>
       </c>
       <c r="E1356" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1357">
@@ -22974,7 +22996,7 @@
         <v>1</v>
       </c>
       <c r="E1360" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1361">
@@ -22991,7 +23013,7 @@
         <v>1</v>
       </c>
       <c r="E1361" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1362">
@@ -23008,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="E1362" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1363">
@@ -23025,7 +23047,7 @@
         <v>1</v>
       </c>
       <c r="E1363" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1364">
@@ -23076,7 +23098,7 @@
         <v>1</v>
       </c>
       <c r="E1366" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1367">
@@ -23093,7 +23115,7 @@
         <v>1</v>
       </c>
       <c r="E1367" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1368">
@@ -23110,7 +23132,7 @@
         <v>1</v>
       </c>
       <c r="E1368" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1369">
@@ -23144,7 +23166,7 @@
         <v>1</v>
       </c>
       <c r="E1370" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1371">
@@ -23195,7 +23217,7 @@
         <v>1</v>
       </c>
       <c r="E1373" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1374">
@@ -23229,7 +23251,7 @@
         <v>1</v>
       </c>
       <c r="E1375" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1376">
@@ -23246,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="E1376" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1377">
@@ -23280,7 +23302,7 @@
         <v>1</v>
       </c>
       <c r="E1378" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1379">
@@ -23297,7 +23319,7 @@
         <v>1</v>
       </c>
       <c r="E1379" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1380">
@@ -23314,7 +23336,7 @@
         <v>1</v>
       </c>
       <c r="E1380" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1381">
@@ -23348,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="E1382" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1383">
@@ -23382,7 +23404,7 @@
         <v>1</v>
       </c>
       <c r="E1384" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1385">
@@ -23399,7 +23421,7 @@
         <v>1</v>
       </c>
       <c r="E1385" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1386">
@@ -23484,7 +23506,7 @@
         <v>1</v>
       </c>
       <c r="E1390" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1391">
@@ -23501,7 +23523,7 @@
         <v>1</v>
       </c>
       <c r="E1391" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1392">
@@ -23518,7 +23540,7 @@
         <v>1</v>
       </c>
       <c r="E1392" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1393">
@@ -23535,7 +23557,7 @@
         <v>1</v>
       </c>
       <c r="E1393" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1394">
@@ -23569,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="E1395" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1396">
@@ -23586,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="E1396" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1397">
@@ -23603,7 +23625,7 @@
         <v>1</v>
       </c>
       <c r="E1397" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1398">
@@ -23620,7 +23642,7 @@
         <v>1</v>
       </c>
       <c r="E1398" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1399">
@@ -23637,7 +23659,7 @@
         <v>1</v>
       </c>
       <c r="E1399" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1400">
@@ -23705,7 +23727,7 @@
         <v>1</v>
       </c>
       <c r="E1403" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1404">
@@ -23722,7 +23744,7 @@
         <v>1</v>
       </c>
       <c r="E1404" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1405">
@@ -23739,7 +23761,7 @@
         <v>1</v>
       </c>
       <c r="E1405" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1406">
@@ -23807,7 +23829,7 @@
         <v>1</v>
       </c>
       <c r="E1409" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1410">
@@ -23841,7 +23863,7 @@
         <v>1</v>
       </c>
       <c r="E1411" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1412">
@@ -23858,7 +23880,7 @@
         <v>1</v>
       </c>
       <c r="E1412" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1413">
@@ -23875,7 +23897,7 @@
         <v>1</v>
       </c>
       <c r="E1413" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1414">
@@ -23892,7 +23914,7 @@
         <v>1</v>
       </c>
       <c r="E1414" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1415">
@@ -23943,7 +23965,7 @@
         <v>1</v>
       </c>
       <c r="E1417" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1418">
@@ -23977,7 +23999,7 @@
         <v>1</v>
       </c>
       <c r="E1419" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1420">
@@ -24045,7 +24067,7 @@
         <v>1</v>
       </c>
       <c r="E1423" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1424">
@@ -24096,7 +24118,7 @@
         <v>1</v>
       </c>
       <c r="E1426" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1427">
@@ -24130,7 +24152,7 @@
         <v>1</v>
       </c>
       <c r="E1428" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1429">
@@ -24181,7 +24203,7 @@
         <v>1</v>
       </c>
       <c r="E1431" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1432">
@@ -24232,7 +24254,7 @@
         <v>1</v>
       </c>
       <c r="E1434" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1435">
@@ -24249,7 +24271,7 @@
         <v>1</v>
       </c>
       <c r="E1435" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1436">
@@ -24300,7 +24322,7 @@
         <v>1</v>
       </c>
       <c r="E1438" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1439">
@@ -24317,7 +24339,7 @@
         <v>1</v>
       </c>
       <c r="E1439" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1440">
@@ -24334,7 +24356,7 @@
         <v>1</v>
       </c>
       <c r="E1440" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1441">
@@ -24385,7 +24407,7 @@
         <v>1</v>
       </c>
       <c r="E1443" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1444">
@@ -24470,7 +24492,7 @@
         <v>1</v>
       </c>
       <c r="E1448" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1449">
@@ -24521,7 +24543,7 @@
         <v>1</v>
       </c>
       <c r="E1451" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1452">
@@ -24572,7 +24594,7 @@
         <v>1</v>
       </c>
       <c r="E1454" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1455">
@@ -24606,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="E1456" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1457">
@@ -24623,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="E1457" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1458">
@@ -24640,7 +24662,7 @@
         <v>1</v>
       </c>
       <c r="E1458" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1459">
@@ -24657,7 +24679,7 @@
         <v>1</v>
       </c>
       <c r="E1459" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1460">
@@ -24674,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="E1460" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1461">
@@ -24691,7 +24713,7 @@
         <v>1</v>
       </c>
       <c r="E1461" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1462">
@@ -24708,7 +24730,7 @@
         <v>1</v>
       </c>
       <c r="E1462" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1463">
@@ -24827,7 +24849,7 @@
         <v>1</v>
       </c>
       <c r="E1469" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1470">
@@ -24861,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="E1471" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1472">
@@ -24929,7 +24951,7 @@
         <v>1</v>
       </c>
       <c r="E1475" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1476">
@@ -24946,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="E1476" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1477">
@@ -25048,7 +25070,7 @@
         <v>1</v>
       </c>
       <c r="E1482" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1483">
@@ -25099,7 +25121,7 @@
         <v>1</v>
       </c>
       <c r="E1485" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1486">
@@ -25167,7 +25189,7 @@
         <v>1</v>
       </c>
       <c r="E1489" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1490">
@@ -25201,7 +25223,7 @@
         <v>1</v>
       </c>
       <c r="E1491" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1492">
@@ -25218,7 +25240,7 @@
         <v>1</v>
       </c>
       <c r="E1492" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1493">
@@ -25320,7 +25342,7 @@
         <v>1</v>
       </c>
       <c r="E1498" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1499">
@@ -25439,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="E1505" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1506">
@@ -25473,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="E1507" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1508">
@@ -25490,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="E1508" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1509">
@@ -25507,7 +25529,7 @@
         <v>1</v>
       </c>
       <c r="E1509" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1510">
@@ -25541,7 +25563,7 @@
         <v>1</v>
       </c>
       <c r="E1511" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1512">
@@ -25575,7 +25597,7 @@
         <v>1</v>
       </c>
       <c r="E1513" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1514">
@@ -25626,7 +25648,7 @@
         <v>1</v>
       </c>
       <c r="E1516" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1517">
@@ -25677,7 +25699,7 @@
         <v>1</v>
       </c>
       <c r="E1519" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1520">
@@ -25694,7 +25716,7 @@
         <v>2</v>
       </c>
       <c r="E1520" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1521">
@@ -25779,7 +25801,7 @@
         <v>2</v>
       </c>
       <c r="E1525" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1526">
@@ -25813,7 +25835,7 @@
         <v>2</v>
       </c>
       <c r="E1527" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1528">
@@ -25830,7 +25852,7 @@
         <v>2</v>
       </c>
       <c r="E1528" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1529">
@@ -25898,7 +25920,7 @@
         <v>2</v>
       </c>
       <c r="E1532" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1533">
@@ -25983,7 +26005,7 @@
         <v>2</v>
       </c>
       <c r="E1537" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1538">
@@ -26017,7 +26039,7 @@
         <v>2</v>
       </c>
       <c r="E1539" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1540">
@@ -26034,7 +26056,7 @@
         <v>2</v>
       </c>
       <c r="E1540" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1541">
@@ -26051,7 +26073,7 @@
         <v>2</v>
       </c>
       <c r="E1541" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1542">
@@ -26085,7 +26107,7 @@
         <v>2</v>
       </c>
       <c r="E1543" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1544">
@@ -26102,7 +26124,7 @@
         <v>2</v>
       </c>
       <c r="E1544" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1545">
@@ -26136,7 +26158,7 @@
         <v>2</v>
       </c>
       <c r="E1546" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1547">
@@ -26153,7 +26175,7 @@
         <v>2</v>
       </c>
       <c r="E1547" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1548">
@@ -26170,7 +26192,7 @@
         <v>2</v>
       </c>
       <c r="E1548" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1549">
@@ -26221,7 +26243,7 @@
         <v>2</v>
       </c>
       <c r="E1551" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1552">
@@ -26272,7 +26294,7 @@
         <v>2</v>
       </c>
       <c r="E1554" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1555">
@@ -26306,7 +26328,7 @@
         <v>2</v>
       </c>
       <c r="E1556" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1557">
@@ -26323,7 +26345,7 @@
         <v>2</v>
       </c>
       <c r="E1557" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1558">
@@ -26374,7 +26396,7 @@
         <v>2</v>
       </c>
       <c r="E1560" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1561">
@@ -26442,7 +26464,7 @@
         <v>2</v>
       </c>
       <c r="E1564" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1565">
@@ -26459,7 +26481,7 @@
         <v>2</v>
       </c>
       <c r="E1565" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1566">
@@ -26476,7 +26498,7 @@
         <v>2</v>
       </c>
       <c r="E1566" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1567">
@@ -26493,7 +26515,7 @@
         <v>2</v>
       </c>
       <c r="E1567" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1568">
@@ -26544,7 +26566,7 @@
         <v>2</v>
       </c>
       <c r="E1570" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1571">
@@ -26561,7 +26583,7 @@
         <v>2</v>
       </c>
       <c r="E1571" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1572">
@@ -26578,7 +26600,7 @@
         <v>2</v>
       </c>
       <c r="E1572" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1573">
@@ -26612,7 +26634,7 @@
         <v>2</v>
       </c>
       <c r="E1574" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1575">
@@ -26663,7 +26685,7 @@
         <v>2</v>
       </c>
       <c r="E1577" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1578">
@@ -26697,7 +26719,7 @@
         <v>2</v>
       </c>
       <c r="E1579" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1580">
@@ -26714,7 +26736,7 @@
         <v>2</v>
       </c>
       <c r="E1580" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1581">
@@ -26748,7 +26770,7 @@
         <v>2</v>
       </c>
       <c r="E1582" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1583">
@@ -26765,7 +26787,7 @@
         <v>2</v>
       </c>
       <c r="E1583" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1584">
@@ -26782,7 +26804,7 @@
         <v>2</v>
       </c>
       <c r="E1584" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1585">
@@ -26850,7 +26872,7 @@
         <v>2</v>
       </c>
       <c r="E1588" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1589">
@@ -26867,7 +26889,7 @@
         <v>2</v>
       </c>
       <c r="E1589" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1590">
@@ -26952,7 +26974,7 @@
         <v>2</v>
       </c>
       <c r="E1594" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1595">
@@ -26969,7 +26991,7 @@
         <v>2</v>
       </c>
       <c r="E1595" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1596">
@@ -26986,7 +27008,7 @@
         <v>2</v>
       </c>
       <c r="E1596" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1597">
@@ -27003,7 +27025,7 @@
         <v>2</v>
       </c>
       <c r="E1597" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1598">
@@ -27037,7 +27059,7 @@
         <v>2</v>
       </c>
       <c r="E1599" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1600">
@@ -27054,7 +27076,7 @@
         <v>2</v>
       </c>
       <c r="E1600" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1601">
@@ -27071,7 +27093,7 @@
         <v>2</v>
       </c>
       <c r="E1601" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1602">
@@ -27088,7 +27110,7 @@
         <v>2</v>
       </c>
       <c r="E1602" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1603">
@@ -27105,7 +27127,7 @@
         <v>2</v>
       </c>
       <c r="E1603" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1604">
@@ -27173,7 +27195,7 @@
         <v>2</v>
       </c>
       <c r="E1607" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1608">
@@ -27190,7 +27212,7 @@
         <v>2</v>
       </c>
       <c r="E1608" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1609">
@@ -27207,7 +27229,7 @@
         <v>2</v>
       </c>
       <c r="E1609" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1610">
@@ -27275,7 +27297,7 @@
         <v>2</v>
       </c>
       <c r="E1613" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1614">
@@ -27309,7 +27331,7 @@
         <v>2</v>
       </c>
       <c r="E1615" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1616">
@@ -27326,7 +27348,7 @@
         <v>2</v>
       </c>
       <c r="E1616" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1617">
@@ -27343,7 +27365,7 @@
         <v>2</v>
       </c>
       <c r="E1617" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1618">
@@ -27360,7 +27382,7 @@
         <v>2</v>
       </c>
       <c r="E1618" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1619">
@@ -27411,7 +27433,7 @@
         <v>2</v>
       </c>
       <c r="E1621" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1622">
@@ -27445,7 +27467,7 @@
         <v>2</v>
       </c>
       <c r="E1623" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1624">
@@ -27513,7 +27535,7 @@
         <v>2</v>
       </c>
       <c r="E1627" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1628">
@@ -27564,7 +27586,7 @@
         <v>2</v>
       </c>
       <c r="E1630" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1631">
@@ -27598,7 +27620,7 @@
         <v>2</v>
       </c>
       <c r="E1632" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1633">
@@ -27649,7 +27671,7 @@
         <v>2</v>
       </c>
       <c r="E1635" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1636">
@@ -27700,7 +27722,7 @@
         <v>2</v>
       </c>
       <c r="E1638" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1639">
@@ -27717,7 +27739,7 @@
         <v>2</v>
       </c>
       <c r="E1639" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1640">
@@ -27768,7 +27790,7 @@
         <v>2</v>
       </c>
       <c r="E1642" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1643">
@@ -27785,7 +27807,7 @@
         <v>2</v>
       </c>
       <c r="E1643" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1644">
@@ -27802,7 +27824,7 @@
         <v>2</v>
       </c>
       <c r="E1644" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1645">
@@ -27853,7 +27875,7 @@
         <v>2</v>
       </c>
       <c r="E1647" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1648">
@@ -27938,7 +27960,7 @@
         <v>2</v>
       </c>
       <c r="E1652" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1653">
@@ -27989,7 +28011,7 @@
         <v>2</v>
       </c>
       <c r="E1655" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1656">
@@ -28040,7 +28062,7 @@
         <v>2</v>
       </c>
       <c r="E1658" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1659">
@@ -28074,7 +28096,7 @@
         <v>2</v>
       </c>
       <c r="E1660" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1661">
@@ -28091,7 +28113,7 @@
         <v>2</v>
       </c>
       <c r="E1661" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1662">
@@ -28108,7 +28130,7 @@
         <v>2</v>
       </c>
       <c r="E1662" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1663">
@@ -28125,7 +28147,7 @@
         <v>2</v>
       </c>
       <c r="E1663" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1664">
@@ -28142,7 +28164,7 @@
         <v>2</v>
       </c>
       <c r="E1664" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1665">
@@ -28159,7 +28181,7 @@
         <v>2</v>
       </c>
       <c r="E1665" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1666">
@@ -28176,7 +28198,7 @@
         <v>2</v>
       </c>
       <c r="E1666" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1667">
@@ -28295,7 +28317,7 @@
         <v>2</v>
       </c>
       <c r="E1673" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1674">
@@ -28329,7 +28351,7 @@
         <v>2</v>
       </c>
       <c r="E1675" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1676">
@@ -28397,7 +28419,7 @@
         <v>2</v>
       </c>
       <c r="E1679" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1680">
@@ -28414,7 +28436,7 @@
         <v>2</v>
       </c>
       <c r="E1680" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1681">
@@ -28516,7 +28538,7 @@
         <v>2</v>
       </c>
       <c r="E1686" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1687">
@@ -28567,7 +28589,7 @@
         <v>2</v>
       </c>
       <c r="E1689" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1690">
@@ -28635,7 +28657,7 @@
         <v>2</v>
       </c>
       <c r="E1693" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1694">
@@ -28669,7 +28691,7 @@
         <v>2</v>
       </c>
       <c r="E1695" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1696">
@@ -28686,7 +28708,7 @@
         <v>2</v>
       </c>
       <c r="E1696" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1697">
@@ -28788,7 +28810,7 @@
         <v>2</v>
       </c>
       <c r="E1702" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1703">
@@ -28907,7 +28929,7 @@
         <v>2</v>
       </c>
       <c r="E1709" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1710">
@@ -28941,7 +28963,7 @@
         <v>2</v>
       </c>
       <c r="E1711" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1712">
@@ -28958,7 +28980,7 @@
         <v>2</v>
       </c>
       <c r="E1712" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1713">
@@ -28975,7 +28997,7 @@
         <v>2</v>
       </c>
       <c r="E1713" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1714">
@@ -29009,7 +29031,7 @@
         <v>2</v>
       </c>
       <c r="E1715" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1716">
@@ -29043,7 +29065,7 @@
         <v>2</v>
       </c>
       <c r="E1717" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1718">
@@ -29094,7 +29116,7 @@
         <v>2</v>
       </c>
       <c r="E1720" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1721">
@@ -29145,7 +29167,7 @@
         <v>2</v>
       </c>
       <c r="E1723" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1724">
@@ -32868,7 +32890,7 @@
         <v>4</v>
       </c>
       <c r="E1942" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1943">
@@ -32885,7 +32907,7 @@
         <v>4</v>
       </c>
       <c r="E1943" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1944">
@@ -33463,7 +33485,7 @@
         <v>4</v>
       </c>
       <c r="E1977" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1978">
@@ -33752,7 +33774,7 @@
         <v>4</v>
       </c>
       <c r="E1994" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1995">
@@ -34313,7 +34335,7 @@
         <v>4</v>
       </c>
       <c r="E2027" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2028">
@@ -35197,7 +35219,7 @@
         <v>4</v>
       </c>
       <c r="E2079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2080">
@@ -43203,363 +43225,532 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>98605.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95712</v>
+      </c>
+    </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>150000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>98605.1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>210614</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B58" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>95712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>20000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15999</v>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>210614</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>142325.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -43567,287 +43758,118 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+      <c r="C93" t="n">
         <v>6</v>
       </c>
-      <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>142325.4</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3</v>
-      </c>
-      <c r="C99" t="n">
-        <v>4</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3</v>
-      </c>
-      <c r="C100" t="n">
-        <v>5</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4</v>
-      </c>
-      <c r="C108" t="n">
-        <v>3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6</v>
-      </c>
-      <c r="D111" t="n">
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44681,4 +44703,5353 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>12</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>14</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>15</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>15</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>16</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>16</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>18</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>18</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>18</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>18</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>22</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>22</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>22</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>22</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>23</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>23</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>24</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>24</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>24</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>24</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>25</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>25</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>25</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>26</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>26</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>26</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>26</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>27</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>27</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>27</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>28</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>28</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>28</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>28</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>29</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>29</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>29</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>29</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>30</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>30</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>30</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>30</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>31</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>31</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>31</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>31</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>32</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>32</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>32</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>32</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>33</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>33</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>33</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>33</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>34</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>34</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>34</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>34</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>35</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>35</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>35</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>35</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>36</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>36</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>36</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>36</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>37</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>37</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>37</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>37</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>38</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>38</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>38</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>38</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>39</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>39</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>39</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>39</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>40</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>40</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>40</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>40</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>41</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>41</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>41</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>41</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>42</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>42</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>42</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>42</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>43</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>43</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>43</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>43</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>44</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>44</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>44</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>44</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>45</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>45</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>45</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>45</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>46</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>46</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>46</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>46</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>47</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>47</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>47</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>47</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>48</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>48</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>48</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>48</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>49</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>49</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>49</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>49</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>50</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>50</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>51</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>51</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>51</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>51</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Thesis/Overleaf Version/output.xlsx
+++ b/Thesis/Overleaf Version/output.xlsx
@@ -10,12 +10,14 @@
     <sheet name="Bukti constraint II" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Bukti constraint V" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Proporsi b_ijk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hasil a_ijk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Objective Func" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Hasil x_k -- total gula k yang dibeli</t>
   </si>
@@ -153,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">gula 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jika item i diproduksi dengan gula k pada week j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total biaya yang dikeluarkan: Rp7515.804 juta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pembelian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_cost</t>
   </si>
 </sst>
 </file>
@@ -43225,579 +43242,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>98605.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>95712</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6</v>
-      </c>
-      <c r="D45" t="n">
-        <v>15999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>210614</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>5</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>6</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>142325.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>5</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
         <v>13</v>
       </c>
-      <c r="B83" t="n">
-        <v>3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>6</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>98605.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -43805,71 +43343,550 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4</v>
-      </c>
-      <c r="C90" t="n">
-        <v>3</v>
-      </c>
-      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="B93" t="n">
-        <v>4</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>95712</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
         <v>6</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D99" t="n">
+        <v>15999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>210614</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>142325.4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50052,4 +50069,5491 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>9</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>12</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>13</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>13</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>14</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>15</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>15</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>16</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>16</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>18</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>18</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>18</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>18</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>22</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>22</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>22</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>22</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>23</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>23</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>24</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>24</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>24</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>24</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>25</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>25</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>25</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>26</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>26</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>26</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>26</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>27</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>27</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>27</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>27</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>28</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>28</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>28</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>28</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>29</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>29</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>29</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>29</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>30</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>30</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>30</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>30</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>31</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>31</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>31</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>31</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>32</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>32</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>32</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>32</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>33</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>33</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>33</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>33</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>34</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>34</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>34</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>34</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>35</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>35</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>35</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>35</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>36</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>36</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>36</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>36</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>37</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>37</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>37</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>37</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>38</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>38</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>38</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>38</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>39</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>39</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>39</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>39</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>40</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>40</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>40</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>40</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>41</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>41</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>41</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>41</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>42</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>42</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>42</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>42</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>43</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>43</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>43</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>43</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>44</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>44</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>44</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>44</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>45</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>45</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>45</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>45</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>46</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>46</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>46</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>46</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>47</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>47</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>47</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>47</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>48</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>48</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>48</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>48</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>49</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>49</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>49</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>49</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>50</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>50</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>51</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>51</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>51</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>51</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16546.39</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1654639000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16503.97</v>
+      </c>
+      <c r="E5" t="n">
+        <v>330079400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28110.24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4216536000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29716.74</v>
+      </c>
+      <c r="E7" t="n">
+        <v>475467840</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>596000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15192.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>243081600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>